--- a/mathTransformed/HMPSTT_(2019-07-30)_47_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-07-30)_47_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H S Santpur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Aurad(B) Bidar</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G P U C (HS) T K RoadBhadravathi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Shivamogga</t>
         </is>
       </c>
@@ -534,6 +549,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G J C (HS) Channagiri</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -561,6 +581,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Govt. P U College (H S) Aurad(B)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -588,6 +613,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Sri Kaliveer High School Alur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -615,6 +645,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>S A G H S BirurKadur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Chickmaglur</t>
         </is>
       </c>
@@ -642,6 +677,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Karnataka Public School BasavapatnaArakalgud</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -669,6 +709,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Shri Jayakeerthi High School Garag</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -696,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Ambedkar High School Magge Alur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -723,6 +773,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S DoddakanagaluAlur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -750,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G J C KallihalBhadravathi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Shivamoga</t>
         </is>
       </c>
@@ -777,6 +837,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>S S T Girls H S Alnavar</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -804,6 +869,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Janatha High School BasawapattanaChannagiri</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -831,6 +901,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>S G M High School Garag</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -858,6 +933,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>S R H S GoppenahalliChannagiri</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -885,6 +965,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Shri. B S Patil P U College (HS) ManagaliBasvan Bagewadi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -912,6 +997,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Govt. G H S Ilkal</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -939,6 +1029,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Govt. H S Thanakushnoor</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Aurad</t>
         </is>
       </c>
@@ -954,7 +1049,8 @@
           <t>Bidar.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Bidar</t>
         </is>
@@ -983,6 +1079,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Katageri Vidyavardak Sangad High School KatageriBadami</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1010,6 +1111,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Shri Basveshwar Govt. P U CollegeBasvan Bagewadi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1037,6 +1143,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Govt. Boys High School Wadagaon(D)Aurad</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1064,6 +1175,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Shree Guru Virupaksheswara High School UppinBetagiri</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1091,6 +1207,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G P U CollegeHolehonnurBhadravathi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1118,6 +1239,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Govt. Boys Composite PU College Channapatna</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1145,6 +1271,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Shree Shanteshwar High School Amminabhavi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1172,6 +1303,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G G P U C New Town Bhadravathi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Shivamogga</t>
         </is>
       </c>
@@ -1199,6 +1335,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G J C Channagiri</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1226,6 +1367,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>S J M H S BirurKadur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Chickmagalore</t>
         </is>
       </c>
@@ -1250,6 +1396,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>S V H School S bidare</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Kadur</t>
         </is>
       </c>
@@ -1277,6 +1428,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>S C H S TanigebyluBirurTarikere</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Chikamagalore</t>
         </is>
       </c>
@@ -1304,6 +1460,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Shree Lakshmeesha High SchoolDevanurKadur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Chickmagalore</t>
         </is>
       </c>
@@ -1331,6 +1492,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Veer Pulikeshi H S Badami</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1358,6 +1524,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S Chawar DapkaAurad</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1385,6 +1556,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Sri Annadaneshular Comp. Jr. CollegeBelurBadami</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Bagalakote</t>
         </is>
       </c>
@@ -1412,6 +1588,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Smt. A C Ghattad Girls High School KerurBadami</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1439,6 +1620,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H S MashalAfzalpur</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1466,6 +1652,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G H S KanathurAlur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1493,6 +1684,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>S R High School IngaleswarBasavan Bagewadi</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Bijapur</t>
         </is>
       </c>
@@ -1520,6 +1716,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H S SaganoorAfzalapur</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1547,6 +1748,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G J C NallurChannagiri</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1574,6 +1780,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Sanchi Honnamma G G P U C Old Town Bhadravathi</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Shivammogga</t>
         </is>
       </c>
@@ -1601,6 +1812,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S KarajagiAfazalapur</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1628,6 +1844,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Govt. Girls P U CollegeJamkhandi High Section</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1652,6 +1873,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Govt. High School BalliganurBirur</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Chikkamagalore</t>
         </is>
       </c>
@@ -1679,6 +1905,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>R T Desai Govt. P U College NeerbudihalBadami</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1706,6 +1937,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>N E S Alnavar</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -1732,6 +1968,11 @@
         </is>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>G G H S Bilagi</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>

--- a/mathTransformed/HMPSTT_(2019-07-30)_47_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-07-30)_47_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,7 +554,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,6 @@
           <t>Bidar.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>Bidar</t>
@@ -1116,7 +1115,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1339,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1624,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1720,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1752,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1816,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2019-07-30)_47_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-07-30)_47_4.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Aurad(B) Bidar</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Shivamogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chickmaglur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Shivamoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Aurad</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Shivamogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chickmagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Kadur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chikamagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chickmagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bagalakote</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Bijapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Shivammogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Chikkamagalore</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
